--- a/results/resultado.xlsx
+++ b/results/resultado.xlsx
@@ -4782,7 +4782,7 @@
         <v>253</v>
       </c>
       <c r="R2" t="n">
-        <v>114734.610286385</v>
+        <v>87241.9081312511</v>
       </c>
     </row>
     <row r="3">
@@ -4836,7 +4836,7 @@
         <v>349</v>
       </c>
       <c r="R3" t="n">
-        <v>3186.84844145672</v>
+        <v>2584.77634139679</v>
       </c>
     </row>
     <row r="4">
@@ -4890,7 +4890,7 @@
         <v>363</v>
       </c>
       <c r="R4" t="n">
-        <v>425.890591655623</v>
+        <v>257.195379182641</v>
       </c>
     </row>
     <row r="5">
@@ -4942,7 +4942,7 @@
         <v>337</v>
       </c>
       <c r="R5" t="n">
-        <v>102325.818158933</v>
+        <v>81119.6353698125</v>
       </c>
     </row>
     <row r="6">
@@ -4996,7 +4996,7 @@
         <v>297</v>
       </c>
       <c r="R6" t="n">
-        <v>2827.01976130796</v>
+        <v>2021.01504271278</v>
       </c>
     </row>
     <row r="7">
@@ -5050,7 +5050,7 @@
         <v>419</v>
       </c>
       <c r="R7" t="n">
-        <v>2827.01976130796</v>
+        <v>2021.01504271278</v>
       </c>
     </row>
     <row r="8">
@@ -5104,7 +5104,7 @@
         <v>400</v>
       </c>
       <c r="R8" t="n">
-        <v>1279.60839460482</v>
+        <v>857.05045940861</v>
       </c>
     </row>
     <row r="9">
@@ -5158,7 +5158,7 @@
         <v>251</v>
       </c>
       <c r="R9" t="n">
-        <v>842.207680199958</v>
+        <v>518.145894990042</v>
       </c>
     </row>
     <row r="10">
@@ -5210,7 +5210,7 @@
         <v>284</v>
       </c>
       <c r="R10" t="n">
-        <v>105097.076343343</v>
+        <v>83046.5528284091</v>
       </c>
     </row>
     <row r="11">
@@ -5264,7 +5264,7 @@
         <v>352</v>
       </c>
       <c r="R11" t="n">
-        <v>2545.99133483537</v>
+        <v>2362.4068676511</v>
       </c>
     </row>
     <row r="12">
@@ -5316,7 +5316,7 @@
         <v>295</v>
       </c>
       <c r="R12" t="n">
-        <v>111538.975684013</v>
+        <v>87870.8216759976</v>
       </c>
     </row>
     <row r="13">
@@ -5368,7 +5368,7 @@
         <v>256</v>
       </c>
       <c r="R13" t="n">
-        <v>105266.235599363</v>
+        <v>83040.0649136179</v>
       </c>
     </row>
     <row r="14">
@@ -5422,7 +5422,7 @@
         <v>268</v>
       </c>
       <c r="R14" t="n">
-        <v>104.238620008407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -5582,7 +5582,7 @@
         <v>319</v>
       </c>
       <c r="R17" t="n">
-        <v>125746.063101594</v>
+        <v>95225.6258896251</v>
       </c>
     </row>
     <row r="18">
@@ -5634,7 +5634,7 @@
         <v>253</v>
       </c>
       <c r="R18" t="n">
-        <v>114999.046977568</v>
+        <v>88786.6977613733</v>
       </c>
     </row>
     <row r="19">
@@ -5688,7 +5688,7 @@
         <v>313</v>
       </c>
       <c r="R19" t="n">
-        <v>1629.19345994542</v>
+        <v>703.393151584944</v>
       </c>
     </row>
     <row r="20">
@@ -5850,7 +5850,7 @@
         <v>389</v>
       </c>
       <c r="R22" t="n">
-        <v>3866.43410989405</v>
+        <v>2603.92998977464</v>
       </c>
     </row>
     <row r="23">
@@ -5904,7 +5904,7 @@
         <v>283</v>
       </c>
       <c r="R23" t="n">
-        <v>4136.74975007523</v>
+        <v>2785.55922709477</v>
       </c>
     </row>
     <row r="24">
@@ -6226,7 +6226,7 @@
         <v>331</v>
       </c>
       <c r="R29" t="n">
-        <v>89491.4270560133</v>
+        <v>62492.1852687199</v>
       </c>
     </row>
     <row r="30">
@@ -6280,7 +6280,7 @@
         <v>330</v>
       </c>
       <c r="R30" t="n">
-        <v>3287.0829989792</v>
+        <v>2074.8500529608</v>
       </c>
     </row>
     <row r="31">
@@ -6334,7 +6334,7 @@
         <v>257</v>
       </c>
       <c r="R31" t="n">
-        <v>2295.6667322115</v>
+        <v>2136.80982835436</v>
       </c>
     </row>
     <row r="32">
@@ -6388,7 +6388,7 @@
         <v>261</v>
       </c>
       <c r="R32" t="n">
-        <v>4491.4719856461</v>
+        <v>3049.28236597641</v>
       </c>
     </row>
     <row r="33">
@@ -8004,7 +8004,7 @@
         <v>387</v>
       </c>
       <c r="R62" t="n">
-        <v>87719.6152783936</v>
+        <v>59976.8039550573</v>
       </c>
     </row>
     <row r="63">
@@ -8058,7 +8058,7 @@
         <v>544</v>
       </c>
       <c r="R63" t="n">
-        <v>2582.48373498309</v>
+        <v>1312.48480203305</v>
       </c>
     </row>
     <row r="64">
@@ -8112,7 +8112,7 @@
         <v>278</v>
       </c>
       <c r="R64" t="n">
-        <v>5302.23281785475</v>
+        <v>4677.24811416707</v>
       </c>
     </row>
     <row r="65">
@@ -8166,7 +8166,7 @@
         <v>250</v>
       </c>
       <c r="R65" t="n">
-        <v>2770.52867801209</v>
+        <v>1247.00671469042</v>
       </c>
     </row>
     <row r="66">
@@ -8220,7 +8220,7 @@
         <v>272</v>
       </c>
       <c r="R66" t="n">
-        <v>4873.89089722851</v>
+        <v>1860.73438052354</v>
       </c>
     </row>
     <row r="67">
@@ -8272,7 +8272,7 @@
         <v>264</v>
       </c>
       <c r="R67" t="n">
-        <v>101864.63523312</v>
+        <v>80810.994027653</v>
       </c>
     </row>
     <row r="68">
@@ -8324,7 +8324,7 @@
         <v>327</v>
       </c>
       <c r="R68" t="n">
-        <v>109270.578654722</v>
+        <v>86080.3384680258</v>
       </c>
     </row>
     <row r="69">
@@ -8376,7 +8376,7 @@
         <v>292</v>
       </c>
       <c r="R69" t="n">
-        <v>104763.937163267</v>
+        <v>83286.3736195283</v>
       </c>
     </row>
     <row r="70">
@@ -8430,7 +8430,7 @@
         <v>584</v>
       </c>
       <c r="R70" t="n">
-        <v>3400.74212313044</v>
+        <v>2750.07052071823</v>
       </c>
     </row>
     <row r="71">
@@ -8484,7 +8484,7 @@
         <v>559</v>
       </c>
       <c r="R71" t="n">
-        <v>3622.08335877301</v>
+        <v>3135.43400536516</v>
       </c>
     </row>
     <row r="72">
@@ -8646,7 +8646,7 @@
         <v>350</v>
       </c>
       <c r="R74" t="n">
-        <v>4790.82437339381</v>
+        <v>1729.98154958188</v>
       </c>
     </row>
     <row r="75">
@@ -8700,7 +8700,7 @@
         <v>287</v>
       </c>
       <c r="R75" t="n">
-        <v>5318.29826240128</v>
+        <v>3469.69091260291</v>
       </c>
     </row>
     <row r="76">
@@ -8754,7 +8754,7 @@
         <v>262</v>
       </c>
       <c r="R76" t="n">
-        <v>5360.98038374773</v>
+        <v>4964.92373631728</v>
       </c>
     </row>
     <row r="77">
@@ -8914,7 +8914,7 @@
         <v>252</v>
       </c>
       <c r="R79" t="n">
-        <v>74574.9430240703</v>
+        <v>32502.6151615325</v>
       </c>
     </row>
     <row r="80">
@@ -8966,7 +8966,7 @@
         <v>286</v>
       </c>
       <c r="R80" t="n">
-        <v>104403.254907976</v>
+        <v>82745.1199146049</v>
       </c>
     </row>
     <row r="81">
@@ -9018,7 +9018,7 @@
         <v>290</v>
       </c>
       <c r="R81" t="n">
-        <v>114259.244670307</v>
+        <v>89333.0032692406</v>
       </c>
     </row>
     <row r="82">
@@ -9070,7 +9070,7 @@
         <v>448</v>
       </c>
       <c r="R82" t="n">
-        <v>61505.721000615</v>
+        <v>50632.7293853078</v>
       </c>
     </row>
     <row r="83">
@@ -9718,7 +9718,7 @@
         <v>300</v>
       </c>
       <c r="R94" t="n">
-        <v>1310.19324615402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -9770,7 +9770,7 @@
         <v>409</v>
       </c>
       <c r="R95" t="n">
-        <v>153732.80738938</v>
+        <v>116419.57165367</v>
       </c>
     </row>
     <row r="96">
@@ -9824,7 +9824,7 @@
         <v>327</v>
       </c>
       <c r="R96" t="n">
-        <v>1134.02691397905</v>
+        <v>567.881075009133</v>
       </c>
     </row>
     <row r="97">
@@ -10254,7 +10254,7 @@
         <v>300</v>
       </c>
       <c r="R104" t="n">
-        <v>114913.17636339</v>
+        <v>87320.026809858</v>
       </c>
     </row>
     <row r="105">
@@ -10362,7 +10362,7 @@
         <v>272</v>
       </c>
       <c r="R106" t="n">
-        <v>2345.73425519966</v>
+        <v>309.903580814554</v>
       </c>
     </row>
     <row r="107">
@@ -10470,7 +10470,7 @@
         <v>295</v>
       </c>
       <c r="R108" t="n">
-        <v>116.832133094347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -10578,7 +10578,7 @@
         <v>247</v>
       </c>
       <c r="R110" t="n">
-        <v>27.7478159399733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -10684,7 +10684,7 @@
         <v>427</v>
       </c>
       <c r="R112" t="n">
-        <v>106030.941686892</v>
+        <v>80515.2114477296</v>
       </c>
     </row>
     <row r="113">
@@ -10736,7 +10736,7 @@
         <v>294</v>
       </c>
       <c r="R113" t="n">
-        <v>109505.88522941</v>
+        <v>84625.168134988</v>
       </c>
     </row>
     <row r="114">
@@ -10790,7 +10790,7 @@
         <v>335</v>
       </c>
       <c r="R114" t="n">
-        <v>2727.72831913477</v>
+        <v>2000.26309960974</v>
       </c>
     </row>
     <row r="115">
@@ -10844,7 +10844,7 @@
         <v>282</v>
       </c>
       <c r="R115" t="n">
-        <v>5299.9497395494</v>
+        <v>3452.27797680738</v>
       </c>
     </row>
     <row r="116">
@@ -10896,7 +10896,7 @@
         <v>276</v>
       </c>
       <c r="R116" t="n">
-        <v>108050.122734893</v>
+        <v>85209.5487825138</v>
       </c>
     </row>
     <row r="117">
@@ -10948,7 +10948,7 @@
         <v>479</v>
       </c>
       <c r="R117" t="n">
-        <v>80163.0780511942</v>
+        <v>53550.5266125903</v>
       </c>
     </row>
     <row r="118">
@@ -11054,7 +11054,7 @@
         <v>384</v>
       </c>
       <c r="R119" t="n">
-        <v>92173.3791033403</v>
+        <v>73090.7102903945</v>
       </c>
     </row>
     <row r="120">
@@ -11106,7 +11106,7 @@
         <v>268</v>
       </c>
       <c r="R120" t="n">
-        <v>101414.356898424</v>
+        <v>81051.3362942871</v>
       </c>
     </row>
     <row r="121">
@@ -11158,7 +11158,7 @@
         <v>276</v>
       </c>
       <c r="R121" t="n">
-        <v>104694.781232994</v>
+        <v>82572.9821436982</v>
       </c>
     </row>
     <row r="122">
@@ -11264,7 +11264,7 @@
         <v>291</v>
       </c>
       <c r="R123" t="n">
-        <v>96557.2673733942</v>
+        <v>64091.8591031617</v>
       </c>
     </row>
     <row r="124">
@@ -11318,7 +11318,7 @@
         <v>304</v>
       </c>
       <c r="R124" t="n">
-        <v>4883.89446158345</v>
+        <v>3134.95685143194</v>
       </c>
     </row>
     <row r="125">
@@ -11372,7 +11372,7 @@
         <v>269</v>
       </c>
       <c r="R125" t="n">
-        <v>3417.35385103255</v>
+        <v>2202.536104033</v>
       </c>
     </row>
     <row r="126">
@@ -11426,7 +11426,7 @@
         <v>265</v>
       </c>
       <c r="R126" t="n">
-        <v>1736.59650566767</v>
+        <v>43.2386515966892</v>
       </c>
     </row>
     <row r="127">
@@ -11480,7 +11480,7 @@
         <v>274</v>
       </c>
       <c r="R127" t="n">
-        <v>4308.81737487777</v>
+        <v>1815.37475932841</v>
       </c>
     </row>
     <row r="128">
@@ -11534,7 +11534,7 @@
         <v>276</v>
       </c>
       <c r="R128" t="n">
-        <v>5957.30870540078</v>
+        <v>4066.51448184152</v>
       </c>
     </row>
     <row r="129">
@@ -11586,7 +11586,7 @@
         <v>270</v>
       </c>
       <c r="R129" t="n">
-        <v>104233.873456941</v>
+        <v>82942.6767763963</v>
       </c>
     </row>
     <row r="130">
@@ -11638,7 +11638,7 @@
         <v>419</v>
       </c>
       <c r="R130" t="n">
-        <v>83419.7131857178</v>
+        <v>66983.5841152393</v>
       </c>
     </row>
     <row r="131">
@@ -11692,7 +11692,7 @@
         <v>488</v>
       </c>
       <c r="R131" t="n">
-        <v>1534.89491271444</v>
+        <v>804.519922876016</v>
       </c>
     </row>
     <row r="132">
@@ -11744,7 +11744,7 @@
         <v>292</v>
       </c>
       <c r="R132" t="n">
-        <v>99442.7265442279</v>
+        <v>79165.4878629508</v>
       </c>
     </row>
     <row r="133">
@@ -11798,7 +11798,7 @@
         <v>339</v>
       </c>
       <c r="R133" t="n">
-        <v>3832.99946591691</v>
+        <v>2951.87464422134</v>
       </c>
     </row>
     <row r="134">
@@ -11852,7 +11852,7 @@
         <v>357</v>
       </c>
       <c r="R134" t="n">
-        <v>4171.32478842342</v>
+        <v>3326.93488539945</v>
       </c>
     </row>
     <row r="135">
@@ -11904,7 +11904,7 @@
         <v>363</v>
       </c>
       <c r="R135" t="n">
-        <v>114042.007341394</v>
+        <v>89016.8783440878</v>
       </c>
     </row>
     <row r="136">
@@ -11956,7 +11956,7 @@
         <v>297</v>
       </c>
       <c r="R136" t="n">
-        <v>98180.7664684884</v>
+        <v>78229.2922316584</v>
       </c>
     </row>
     <row r="137">
@@ -12008,7 +12008,7 @@
         <v>379</v>
       </c>
       <c r="R137" t="n">
-        <v>100674.296335379</v>
+        <v>80115.8576026777</v>
       </c>
     </row>
     <row r="138">
@@ -12168,7 +12168,7 @@
         <v>299</v>
       </c>
       <c r="R140" t="n">
-        <v>99270.2747008548</v>
+        <v>67370.9777539394</v>
       </c>
     </row>
     <row r="141">
@@ -12220,7 +12220,7 @@
         <v>326</v>
       </c>
       <c r="R141" t="n">
-        <v>106031.144734638</v>
+        <v>83659.5845180105</v>
       </c>
     </row>
     <row r="142">
@@ -12272,7 +12272,7 @@
         <v>313</v>
       </c>
       <c r="R142" t="n">
-        <v>106031.144734638</v>
+        <v>83659.5845180105</v>
       </c>
     </row>
     <row r="143">
@@ -12486,7 +12486,7 @@
         <v>414</v>
       </c>
       <c r="R146" t="n">
-        <v>104427.289145591</v>
+        <v>83944.4205770411</v>
       </c>
     </row>
     <row r="147">
@@ -12540,7 +12540,7 @@
         <v>390</v>
       </c>
       <c r="R147" t="n">
-        <v>4382.78875467736</v>
+        <v>3926.38494749653</v>
       </c>
     </row>
     <row r="148">
@@ -12648,7 +12648,7 @@
         <v>380</v>
       </c>
       <c r="R149" t="n">
-        <v>3003.95696799537</v>
+        <v>482.804949584948</v>
       </c>
     </row>
     <row r="150">
@@ -12702,7 +12702,7 @@
         <v>405</v>
       </c>
       <c r="R150" t="n">
-        <v>3992.58533736881</v>
+        <v>977.28462987407</v>
       </c>
     </row>
     <row r="151">
@@ -12756,7 +12756,7 @@
         <v>555</v>
       </c>
       <c r="R151" t="n">
-        <v>1904.75090723444</v>
+        <v>1721.29546417253</v>
       </c>
     </row>
     <row r="152">
@@ -13132,7 +13132,7 @@
         <v>292</v>
       </c>
       <c r="R158" t="n">
-        <v>121213.017642419</v>
+        <v>96977.8736315494</v>
       </c>
     </row>
     <row r="159">
@@ -13240,7 +13240,7 @@
         <v>313</v>
       </c>
       <c r="R160" t="n">
-        <v>1607.85948483279</v>
+        <v>768.309536228848</v>
       </c>
     </row>
     <row r="161">
@@ -13292,7 +13292,7 @@
         <v>303</v>
       </c>
       <c r="R161" t="n">
-        <v>113116.062081213</v>
+        <v>88822.89613059</v>
       </c>
     </row>
     <row r="162">
@@ -13346,7 +13346,7 @@
         <v>289</v>
       </c>
       <c r="R162" t="n">
-        <v>3507.12493212676</v>
+        <v>2676.16566919467</v>
       </c>
     </row>
     <row r="163">
@@ -13400,7 +13400,7 @@
         <v>577</v>
       </c>
       <c r="R163" t="n">
-        <v>3831.48333536123</v>
+        <v>2569.74770829269</v>
       </c>
     </row>
     <row r="164">
@@ -13454,7 +13454,7 @@
         <v>497</v>
       </c>
       <c r="R164" t="n">
-        <v>3185.78893056739</v>
+        <v>3001.89804471422</v>
       </c>
     </row>
     <row r="165">
@@ -13562,7 +13562,7 @@
         <v>260</v>
       </c>
       <c r="R166" t="n">
-        <v>337.961811345298</v>
+        <v>38.5410542382417</v>
       </c>
     </row>
     <row r="167">
@@ -13614,7 +13614,7 @@
         <v>287</v>
       </c>
       <c r="R167" t="n">
-        <v>120410.212289959</v>
+        <v>93151.8166810296</v>
       </c>
     </row>
     <row r="168">
@@ -13668,7 +13668,7 @@
         <v>424</v>
       </c>
       <c r="R168" t="n">
-        <v>18925.1960954416</v>
+        <v>16337.9730786318</v>
       </c>
     </row>
     <row r="169">
@@ -14366,7 +14366,7 @@
         <v>355</v>
       </c>
       <c r="R181" t="n">
-        <v>2802.49263149463</v>
+        <v>2234.34740787105</v>
       </c>
     </row>
     <row r="182">
@@ -14418,7 +14418,7 @@
         <v>342</v>
       </c>
       <c r="R182" t="n">
-        <v>102684.739668363</v>
+        <v>81754.407694232</v>
       </c>
     </row>
     <row r="183">
@@ -14526,7 +14526,7 @@
         <v>312</v>
       </c>
       <c r="R184" t="n">
-        <v>1.93272074115064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -14578,7 +14578,7 @@
         <v>243</v>
       </c>
       <c r="R185" t="n">
-        <v>124319.354217579</v>
+        <v>94145.200442565</v>
       </c>
     </row>
     <row r="186">
@@ -14630,7 +14630,7 @@
         <v>325</v>
       </c>
       <c r="R186" t="n">
-        <v>120410.212289959</v>
+        <v>93151.8166810296</v>
       </c>
     </row>
     <row r="187">
@@ -14682,7 +14682,7 @@
         <v>410</v>
       </c>
       <c r="R187" t="n">
-        <v>101374.020030253</v>
+        <v>79022.2108340309</v>
       </c>
     </row>
     <row r="188">
@@ -14734,7 +14734,7 @@
         <v>462</v>
       </c>
       <c r="R188" t="n">
-        <v>54293.2159082608</v>
+        <v>44947.3488236153</v>
       </c>
     </row>
     <row r="189">
@@ -14786,7 +14786,7 @@
         <v>286</v>
       </c>
       <c r="R189" t="n">
-        <v>117573.748552813</v>
+        <v>91361.3993366179</v>
       </c>
     </row>
     <row r="190">
@@ -14892,7 +14892,7 @@
         <v>328</v>
       </c>
       <c r="R191" t="n">
-        <v>104694.781232994</v>
+        <v>82572.9821436982</v>
       </c>
     </row>
     <row r="192">
@@ -14944,7 +14944,7 @@
         <v>281</v>
       </c>
       <c r="R192" t="n">
-        <v>107264.060123231</v>
+        <v>83592.4322852973</v>
       </c>
     </row>
     <row r="193">
@@ -14998,7 +14998,7 @@
         <v>313</v>
       </c>
       <c r="R193" t="n">
-        <v>449.530018653568</v>
+        <v>287.055220799402</v>
       </c>
     </row>
     <row r="194">
@@ -15052,7 +15052,7 @@
         <v>299</v>
       </c>
       <c r="R194" t="n">
-        <v>3987.96034324901</v>
+        <v>991.336014711079</v>
       </c>
     </row>
     <row r="195">
@@ -15160,7 +15160,7 @@
         <v>271</v>
       </c>
       <c r="R196" t="n">
-        <v>3077.39212361879</v>
+        <v>2109.70985398294</v>
       </c>
     </row>
     <row r="197">
@@ -15968,7 +15968,7 @@
         <v>251</v>
       </c>
       <c r="R211" t="n">
-        <v>101186.001743082</v>
+        <v>81060.6743378891</v>
       </c>
     </row>
     <row r="212">
@@ -16020,7 +16020,7 @@
         <v>297</v>
       </c>
       <c r="R212" t="n">
-        <v>104096.266819576</v>
+        <v>82152.2190984417</v>
       </c>
     </row>
     <row r="213">
@@ -16074,7 +16074,7 @@
         <v>308</v>
       </c>
       <c r="R213" t="n">
-        <v>3336.98002284632</v>
+        <v>2919.5820799066</v>
       </c>
     </row>
     <row r="214">
@@ -16126,7 +16126,7 @@
         <v>295</v>
       </c>
       <c r="R214" t="n">
-        <v>106871.659994463</v>
+        <v>83331.1724941776</v>
       </c>
     </row>
     <row r="215">
@@ -16178,7 +16178,7 @@
         <v>370</v>
       </c>
       <c r="R215" t="n">
-        <v>93317.9138083268</v>
+        <v>74650.7478655907</v>
       </c>
     </row>
     <row r="216">
@@ -18012,7 +18012,7 @@
         <v>357</v>
       </c>
       <c r="R249" t="n">
-        <v>47660.9758333397</v>
+        <v>269.922088022429</v>
       </c>
     </row>
     <row r="250">
@@ -18280,7 +18280,7 @@
         <v>255</v>
       </c>
       <c r="R254" t="n">
-        <v>17704.9878155749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -18440,7 +18440,7 @@
         <v>309</v>
       </c>
       <c r="R257" t="n">
-        <v>113450.895792065</v>
+        <v>84942.9662555622</v>
       </c>
     </row>
     <row r="258">
@@ -18494,7 +18494,7 @@
         <v>304</v>
       </c>
       <c r="R258" t="n">
-        <v>1237.40016941771</v>
+        <v>0.158067593843347</v>
       </c>
     </row>
     <row r="259">
@@ -18548,7 +18548,7 @@
         <v>247</v>
       </c>
       <c r="R259" t="n">
-        <v>3651.22416350689</v>
+        <v>2865.12562717529</v>
       </c>
     </row>
     <row r="260">
@@ -18602,7 +18602,7 @@
         <v>240</v>
       </c>
       <c r="R260" t="n">
-        <v>678.720108436606</v>
+        <v>469.39798269234</v>
       </c>
     </row>
     <row r="261">
@@ -18654,7 +18654,7 @@
         <v>377</v>
       </c>
       <c r="R261" t="n">
-        <v>118549.82175432</v>
+        <v>89776.0192025886</v>
       </c>
     </row>
     <row r="262">
@@ -18708,7 +18708,7 @@
         <v>474</v>
       </c>
       <c r="R262" t="n">
-        <v>4.87184392456605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -18816,7 +18816,7 @@
         <v>262</v>
       </c>
       <c r="R264" t="n">
-        <v>1278.1447985034</v>
+        <v>2.0836464799684</v>
       </c>
     </row>
     <row r="265">
@@ -21138,7 +21138,7 @@
         <v>316</v>
       </c>
       <c r="R307" t="n">
-        <v>306.700231473997</v>
+        <v>26.1752180670009</v>
       </c>
     </row>
     <row r="308">
@@ -21192,7 +21192,7 @@
         <v>322</v>
       </c>
       <c r="R308" t="n">
-        <v>993.650045452263</v>
+        <v>189.668547571023</v>
       </c>
     </row>
     <row r="309">
@@ -21246,7 +21246,7 @@
         <v>318</v>
       </c>
       <c r="R309" t="n">
-        <v>2598.01253608875</v>
+        <v>824.42242284928</v>
       </c>
     </row>
     <row r="310">
@@ -21408,7 +21408,7 @@
         <v>332</v>
       </c>
       <c r="R312" t="n">
-        <v>60.2132364938763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -21514,7 +21514,7 @@
         <v>260</v>
       </c>
       <c r="R314" t="n">
-        <v>30811.8063997768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -21676,7 +21676,7 @@
         <v>245</v>
       </c>
       <c r="R317" t="n">
-        <v>501.380209729791</v>
+        <v>389.894415563223</v>
       </c>
     </row>
     <row r="318">
@@ -21728,7 +21728,7 @@
         <v>243</v>
       </c>
       <c r="R318" t="n">
-        <v>22979.8924012615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -21782,7 +21782,7 @@
         <v>258</v>
       </c>
       <c r="R319" t="n">
-        <v>2372.80601573275</v>
+        <v>1582.08527898485</v>
       </c>
     </row>
     <row r="320">
@@ -21836,7 +21836,7 @@
         <v>291</v>
       </c>
       <c r="R320" t="n">
-        <v>775.83843644566</v>
+        <v>255.653197401714</v>
       </c>
     </row>
     <row r="321">
@@ -21888,7 +21888,7 @@
         <v>227</v>
       </c>
       <c r="R321" t="n">
-        <v>122317.472345625</v>
+        <v>94694.4153509926</v>
       </c>
     </row>
     <row r="322">
@@ -21942,7 +21942,7 @@
         <v>262</v>
       </c>
       <c r="R322" t="n">
-        <v>3951.87900703554</v>
+        <v>2940.60902699337</v>
       </c>
     </row>
     <row r="323">
@@ -22050,7 +22050,7 @@
         <v>263</v>
       </c>
       <c r="R324" t="n">
-        <v>2429.09908461617</v>
+        <v>892.915503035647</v>
       </c>
     </row>
     <row r="325">
@@ -22104,7 +22104,7 @@
         <v>239</v>
       </c>
       <c r="R325" t="n">
-        <v>2789.59311060788</v>
+        <v>1482.56666947548</v>
       </c>
     </row>
     <row r="326">
@@ -22158,7 +22158,7 @@
         <v>273</v>
       </c>
       <c r="R326" t="n">
-        <v>4008.00497860021</v>
+        <v>2726.29005113992</v>
       </c>
     </row>
     <row r="327">
@@ -22212,7 +22212,7 @@
         <v>392</v>
       </c>
       <c r="R327" t="n">
-        <v>1.17081733101762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -22374,7 +22374,7 @@
         <v>245</v>
       </c>
       <c r="R330" t="n">
-        <v>2823.28067812155</v>
+        <v>2522.59312507287</v>
       </c>
     </row>
     <row r="331">
@@ -22428,7 +22428,7 @@
         <v>277</v>
       </c>
       <c r="R331" t="n">
-        <v>34.4955930213681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -22482,7 +22482,7 @@
         <v>313</v>
       </c>
       <c r="R332" t="n">
-        <v>10812.271892736</v>
+        <v>9881.90941629038</v>
       </c>
     </row>
     <row r="333">
@@ -22534,7 +22534,7 @@
         <v>459</v>
       </c>
       <c r="R333" t="n">
-        <v>109477.822037907</v>
+        <v>85061.0542496158</v>
       </c>
     </row>
     <row r="334">
@@ -22588,7 +22588,7 @@
         <v>312</v>
       </c>
       <c r="R334" t="n">
-        <v>485.788068599334</v>
+        <v>286.330847519489</v>
       </c>
     </row>
     <row r="335">
@@ -22694,7 +22694,7 @@
         <v>510</v>
       </c>
       <c r="R336" t="n">
-        <v>48697.1078610463</v>
+        <v>39468.9803627106</v>
       </c>
     </row>
     <row r="337">
@@ -22802,7 +22802,7 @@
         <v>258</v>
       </c>
       <c r="R338" t="n">
-        <v>43.4472395701455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -22856,7 +22856,7 @@
         <v>276</v>
       </c>
       <c r="R339" t="n">
-        <v>2063.74842766463</v>
+        <v>1377.67331031584</v>
       </c>
     </row>
     <row r="340">
@@ -22908,7 +22908,7 @@
         <v>281</v>
       </c>
       <c r="R340" t="n">
-        <v>118398.213413206</v>
+        <v>90340.7148212704</v>
       </c>
     </row>
     <row r="341">
@@ -23122,7 +23122,7 @@
         <v>291</v>
       </c>
       <c r="R344" t="n">
-        <v>1220.61771190481</v>
+        <v>95.4352464978215</v>
       </c>
     </row>
     <row r="345">
@@ -23176,7 +23176,7 @@
         <v>274</v>
       </c>
       <c r="R345" t="n">
-        <v>5077.86772277942</v>
+        <v>4463.59948333933</v>
       </c>
     </row>
     <row r="346">
@@ -23230,7 +23230,7 @@
         <v>252</v>
       </c>
       <c r="R346" t="n">
-        <v>659.453718784459</v>
+        <v>198.731674370412</v>
       </c>
     </row>
     <row r="347">
@@ -23282,7 +23282,7 @@
         <v>280</v>
       </c>
       <c r="R347" t="n">
-        <v>107954.650187372</v>
+        <v>83542.0281212348</v>
       </c>
     </row>
     <row r="348">
@@ -23390,7 +23390,7 @@
         <v>311</v>
       </c>
       <c r="R349" t="n">
-        <v>0.465707076104903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -23444,7 +23444,7 @@
         <v>575</v>
       </c>
       <c r="R350" t="n">
-        <v>2639.01582265182</v>
+        <v>1617.6297707741</v>
       </c>
     </row>
     <row r="351">
@@ -23496,7 +23496,7 @@
         <v>379</v>
       </c>
       <c r="R351" t="n">
-        <v>102037.237644869</v>
+        <v>80628.6165231954</v>
       </c>
     </row>
     <row r="352">
@@ -23548,7 +23548,7 @@
         <v>272</v>
       </c>
       <c r="R352" t="n">
-        <v>101440.937867635</v>
+        <v>80747.7096859331</v>
       </c>
     </row>
     <row r="353">
@@ -23602,7 +23602,7 @@
         <v>300</v>
       </c>
       <c r="R353" t="n">
-        <v>50.0805810779443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -23710,7 +23710,7 @@
         <v>300</v>
       </c>
       <c r="R355" t="n">
-        <v>4127.59246309809</v>
+        <v>2784.64844093486</v>
       </c>
     </row>
     <row r="356">
@@ -23762,7 +23762,7 @@
         <v>331</v>
       </c>
       <c r="R356" t="n">
-        <v>114611.748858813</v>
+        <v>89314.1548614929</v>
       </c>
     </row>
     <row r="357">
@@ -23814,7 +23814,7 @@
         <v>267</v>
       </c>
       <c r="R357" t="n">
-        <v>110370.295265942</v>
+        <v>86701.760910932</v>
       </c>
     </row>
     <row r="358">
@@ -23868,7 +23868,7 @@
         <v>278</v>
       </c>
       <c r="R358" t="n">
-        <v>2797.82979409734</v>
+        <v>369.714506112313</v>
       </c>
     </row>
     <row r="359">
@@ -23920,7 +23920,7 @@
         <v>264</v>
       </c>
       <c r="R359" t="n">
-        <v>122789.321103483</v>
+        <v>95072.047693222</v>
       </c>
     </row>
     <row r="360">
@@ -23974,7 +23974,7 @@
         <v>338</v>
       </c>
       <c r="R360" t="n">
-        <v>3283.61558346459</v>
+        <v>2855.42545481072</v>
       </c>
     </row>
     <row r="361">
@@ -24028,7 +24028,7 @@
         <v>366</v>
       </c>
       <c r="R361" t="n">
-        <v>4505.17663719481</v>
+        <v>4153.04810879327</v>
       </c>
     </row>
     <row r="362">
@@ -24190,7 +24190,7 @@
         <v>305</v>
       </c>
       <c r="R364" t="n">
-        <v>105.373782791349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -24244,7 +24244,7 @@
         <v>257</v>
       </c>
       <c r="R365" t="n">
-        <v>471.261150177797</v>
+        <v>100.01745223233</v>
       </c>
     </row>
     <row r="366">
@@ -24296,7 +24296,7 @@
         <v>271</v>
       </c>
       <c r="R366" t="n">
-        <v>105849.261018688</v>
+        <v>83725.3579354522</v>
       </c>
     </row>
     <row r="367">
@@ -24404,7 +24404,7 @@
         <v>333</v>
       </c>
       <c r="R368" t="n">
-        <v>1521.73753823264</v>
+        <v>657.856058372916</v>
       </c>
     </row>
     <row r="369">
@@ -24458,7 +24458,7 @@
         <v>274</v>
       </c>
       <c r="R369" t="n">
-        <v>2750.73960065912</v>
+        <v>2618.36692943737</v>
       </c>
     </row>
     <row r="370">
@@ -24620,7 +24620,7 @@
         <v>387</v>
       </c>
       <c r="R372" t="n">
-        <v>2771.95138588893</v>
+        <v>663.663367966965</v>
       </c>
     </row>
     <row r="373">
@@ -24672,7 +24672,7 @@
         <v>394</v>
       </c>
       <c r="R373" t="n">
-        <v>151665.200710764</v>
+        <v>109279.127028189</v>
       </c>
     </row>
     <row r="374">
@@ -24726,7 +24726,7 @@
         <v>484</v>
       </c>
       <c r="R374" t="n">
-        <v>1994.00062154801</v>
+        <v>504.554159915038</v>
       </c>
     </row>
     <row r="375">
@@ -24780,7 +24780,7 @@
         <v>523</v>
       </c>
       <c r="R375" t="n">
-        <v>2486.0577033325</v>
+        <v>1575.04065333217</v>
       </c>
     </row>
     <row r="376">
@@ -24886,7 +24886,7 @@
         <v>413</v>
       </c>
       <c r="R377" t="n">
-        <v>102883.624573731</v>
+        <v>74980.9728131236</v>
       </c>
     </row>
     <row r="378">
@@ -24992,7 +24992,7 @@
         <v>517</v>
       </c>
       <c r="R379" t="n">
-        <v>49109.352958617</v>
+        <v>41245.1439894638</v>
       </c>
     </row>
     <row r="380">
@@ -25044,7 +25044,7 @@
         <v>314</v>
       </c>
       <c r="R380" t="n">
-        <v>99497.1687716997</v>
+        <v>79004.4832078037</v>
       </c>
     </row>
     <row r="381">
@@ -25096,7 +25096,7 @@
         <v>293</v>
       </c>
       <c r="R381" t="n">
-        <v>99771.7390319212</v>
+        <v>79439.9518499862</v>
       </c>
     </row>
     <row r="382">
@@ -25690,7 +25690,7 @@
         <v>283</v>
       </c>
       <c r="R392" t="n">
-        <v>151.638306650994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -25744,7 +25744,7 @@
         <v>512</v>
       </c>
       <c r="R393" t="n">
-        <v>1633.94601575209</v>
+        <v>551.031082520954</v>
       </c>
     </row>
     <row r="394">
@@ -25798,7 +25798,7 @@
         <v>425</v>
       </c>
       <c r="R394" t="n">
-        <v>2535.03262916227</v>
+        <v>1626.84326413428</v>
       </c>
     </row>
     <row r="395">
@@ -25852,7 +25852,7 @@
         <v>433</v>
       </c>
       <c r="R395" t="n">
-        <v>800.465649832989</v>
+        <v>113.12633937679</v>
       </c>
     </row>
     <row r="396">
@@ -25906,7 +25906,7 @@
         <v>475</v>
       </c>
       <c r="R396" t="n">
-        <v>2453.29157880126</v>
+        <v>1157.84680665302</v>
       </c>
     </row>
     <row r="397">
@@ -25960,7 +25960,7 @@
         <v>284</v>
       </c>
       <c r="R397" t="n">
-        <v>5516.87053052481</v>
+        <v>4583.85887931966</v>
       </c>
     </row>
     <row r="398">
@@ -26014,7 +26014,7 @@
         <v>365</v>
       </c>
       <c r="R398" t="n">
-        <v>5422.54207082293</v>
+        <v>2204.58500236228</v>
       </c>
     </row>
     <row r="399">
@@ -26066,7 +26066,7 @@
         <v>384</v>
       </c>
       <c r="R399" t="n">
-        <v>112501.146736494</v>
+        <v>84717.9474932855</v>
       </c>
     </row>
     <row r="400">
@@ -26118,7 +26118,7 @@
         <v>346</v>
       </c>
       <c r="R400" t="n">
-        <v>77873.4238268413</v>
+        <v>47768.381419238</v>
       </c>
     </row>
     <row r="401">
@@ -26280,7 +26280,7 @@
         <v>307</v>
       </c>
       <c r="R403" t="n">
-        <v>27.6757724650906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -26332,7 +26332,7 @@
         <v>270</v>
       </c>
       <c r="R404" t="n">
-        <v>125570.17169379</v>
+        <v>99955.6114970812</v>
       </c>
     </row>
     <row r="405">
@@ -26492,7 +26492,7 @@
         <v>360</v>
       </c>
       <c r="R407" t="n">
-        <v>21987.3597258239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -26600,7 +26600,7 @@
         <v>255</v>
       </c>
       <c r="R409" t="n">
-        <v>3194.5504501975</v>
+        <v>1994.7415025483</v>
       </c>
     </row>
     <row r="410">
@@ -26814,7 +26814,7 @@
         <v>309</v>
       </c>
       <c r="R413" t="n">
-        <v>114497.283131185</v>
+        <v>89669.8878569557</v>
       </c>
     </row>
     <row r="414">
@@ -26866,7 +26866,7 @@
         <v>270</v>
       </c>
       <c r="R414" t="n">
-        <v>64203.5984338245</v>
+        <v>31130.8263571483</v>
       </c>
     </row>
     <row r="415">
@@ -26920,7 +26920,7 @@
         <v>275</v>
       </c>
       <c r="R415" t="n">
-        <v>168.164342523076</v>
+        <v>0.807441543117454</v>
       </c>
     </row>
     <row r="416">
@@ -27836,7 +27836,7 @@
         <v>278</v>
       </c>
       <c r="R432" t="n">
-        <v>112877.478292739</v>
+        <v>88530.5132337041</v>
       </c>
     </row>
     <row r="433">
@@ -27944,7 +27944,7 @@
         <v>321</v>
       </c>
       <c r="R434" t="n">
-        <v>405.382009658565</v>
+        <v>6.01763513471664</v>
       </c>
     </row>
     <row r="435">
@@ -27998,7 +27998,7 @@
         <v>572</v>
       </c>
       <c r="R435" t="n">
-        <v>1041.78340599793</v>
+        <v>708.921497617776</v>
       </c>
     </row>
     <row r="436">
@@ -28106,7 +28106,7 @@
         <v>335</v>
       </c>
       <c r="R437" t="n">
-        <v>1360.39792158918</v>
+        <v>1342.06094370414</v>
       </c>
     </row>
     <row r="438">
@@ -28160,7 +28160,7 @@
         <v>229</v>
       </c>
       <c r="R438" t="n">
-        <v>3411.93831647001</v>
+        <v>2750.55328216493</v>
       </c>
     </row>
     <row r="439">
@@ -28214,7 +28214,7 @@
         <v>223</v>
       </c>
       <c r="R439" t="n">
-        <v>246.881587526193</v>
+        <v>13.0396607205252</v>
       </c>
     </row>
     <row r="440">
@@ -28266,7 +28266,7 @@
         <v>261</v>
       </c>
       <c r="R440" t="n">
-        <v>105221.872771876</v>
+        <v>83321.9062374303</v>
       </c>
     </row>
     <row r="441">
@@ -28318,7 +28318,7 @@
         <v>304</v>
       </c>
       <c r="R441" t="n">
-        <v>103902.993246496</v>
+        <v>82865.4831159472</v>
       </c>
     </row>
     <row r="442">
@@ -28426,7 +28426,7 @@
         <v>289</v>
       </c>
       <c r="R443" t="n">
-        <v>18.4586572638744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
@@ -28478,7 +28478,7 @@
         <v>305</v>
       </c>
       <c r="R444" t="n">
-        <v>64770.8499607786</v>
+        <v>32554.8468318551</v>
       </c>
     </row>
     <row r="445">
@@ -28532,7 +28532,7 @@
         <v>253</v>
       </c>
       <c r="R445" t="n">
-        <v>4669.24901811551</v>
+        <v>1618.10751453</v>
       </c>
     </row>
     <row r="446">
@@ -28586,7 +28586,7 @@
         <v>296</v>
       </c>
       <c r="R446" t="n">
-        <v>3146.49130386869</v>
+        <v>2564.10115942675</v>
       </c>
     </row>
     <row r="447">
@@ -29394,7 +29394,7 @@
         <v>381</v>
       </c>
       <c r="R461" t="n">
-        <v>118549.82175432</v>
+        <v>89776.0192025886</v>
       </c>
     </row>
     <row r="462">
@@ -29446,7 +29446,7 @@
         <v>442</v>
       </c>
       <c r="R462" t="n">
-        <v>110379.338076187</v>
+        <v>87768.8446870773</v>
       </c>
     </row>
     <row r="463">
@@ -29552,7 +29552,7 @@
         <v>392</v>
       </c>
       <c r="R464" t="n">
-        <v>121709.790434053</v>
+        <v>94200.385219729</v>
       </c>
     </row>
     <row r="465">
@@ -29604,7 +29604,7 @@
         <v>238</v>
       </c>
       <c r="R465" t="n">
-        <v>104096.266819576</v>
+        <v>82152.2190984417</v>
       </c>
     </row>
     <row r="466">
@@ -29656,7 +29656,7 @@
         <v>273</v>
       </c>
       <c r="R466" t="n">
-        <v>100793.559204212</v>
+        <v>80882.4161008864</v>
       </c>
     </row>
     <row r="467">
@@ -29708,7 +29708,7 @@
         <v>318</v>
       </c>
       <c r="R467" t="n">
-        <v>103871.617002268</v>
+        <v>82039.7617663984</v>
       </c>
     </row>
     <row r="468">
@@ -29760,7 +29760,7 @@
         <v>237</v>
       </c>
       <c r="R468" t="n">
-        <v>123403.65612181</v>
+        <v>96714.6317396052</v>
       </c>
     </row>
     <row r="469">
@@ -29812,7 +29812,7 @@
         <v>242</v>
       </c>
       <c r="R469" t="n">
-        <v>106155.335243082</v>
+        <v>84084.1120498973</v>
       </c>
     </row>
     <row r="470">
@@ -29864,7 +29864,7 @@
         <v>251</v>
       </c>
       <c r="R470" t="n">
-        <v>100793.559204212</v>
+        <v>80882.4161008864</v>
       </c>
     </row>
     <row r="471">
@@ -29918,7 +29918,7 @@
         <v>557</v>
       </c>
       <c r="R471" t="n">
-        <v>3061.64500066852</v>
+        <v>2587.62810276484</v>
       </c>
     </row>
     <row r="472">
@@ -29972,7 +29972,7 @@
         <v>485</v>
       </c>
       <c r="R472" t="n">
-        <v>5295.5642287109</v>
+        <v>4942.22991327631</v>
       </c>
     </row>
     <row r="473">
@@ -30024,7 +30024,7 @@
         <v>332</v>
       </c>
       <c r="R473" t="n">
-        <v>103746.450402554</v>
+        <v>82065.167453262</v>
       </c>
     </row>
     <row r="474">
@@ -30078,7 +30078,7 @@
         <v>252</v>
       </c>
       <c r="R474" t="n">
-        <v>2972.20672599442</v>
+        <v>1311.2436114749</v>
       </c>
     </row>
     <row r="475">
@@ -30130,7 +30130,7 @@
         <v>299</v>
       </c>
       <c r="R475" t="n">
-        <v>103746.450402554</v>
+        <v>82065.167453262</v>
       </c>
     </row>
     <row r="476">
@@ -30184,7 +30184,7 @@
         <v>381</v>
       </c>
       <c r="R476" t="n">
-        <v>364.841630649112</v>
+        <v>0.490871133728449</v>
       </c>
     </row>
     <row r="477">
@@ -30236,7 +30236,7 @@
         <v>254</v>
       </c>
       <c r="R477" t="n">
-        <v>113782.575722043</v>
+        <v>88324.4023983397</v>
       </c>
     </row>
     <row r="478">
@@ -30288,7 +30288,7 @@
         <v>249</v>
       </c>
       <c r="R478" t="n">
-        <v>114042.007341394</v>
+        <v>89016.8783440878</v>
       </c>
     </row>
     <row r="479">
@@ -30340,7 +30340,7 @@
         <v>257</v>
       </c>
       <c r="R479" t="n">
-        <v>100248.754948293</v>
+        <v>80467.8805572846</v>
       </c>
     </row>
     <row r="480">
@@ -30392,7 +30392,7 @@
         <v>248</v>
       </c>
       <c r="R480" t="n">
-        <v>113898.32557844</v>
+        <v>89411.1514392416</v>
       </c>
     </row>
     <row r="481">
@@ -30444,7 +30444,7 @@
         <v>288</v>
       </c>
       <c r="R481" t="n">
-        <v>114259.244670307</v>
+        <v>89333.0032692406</v>
       </c>
     </row>
     <row r="482">
@@ -30496,7 +30496,7 @@
         <v>327</v>
       </c>
       <c r="R482" t="n">
-        <v>100248.754948293</v>
+        <v>80467.8805572846</v>
       </c>
     </row>
     <row r="483">
@@ -30604,7 +30604,7 @@
         <v>269</v>
       </c>
       <c r="R484" t="n">
-        <v>3799.70509134014</v>
+        <v>2465.61792204315</v>
       </c>
     </row>
     <row r="485">
@@ -30710,7 +30710,7 @@
         <v>292</v>
       </c>
       <c r="R486" t="n">
-        <v>99893.0518440149</v>
+        <v>79882.7012248589</v>
       </c>
     </row>
     <row r="487">
@@ -30762,7 +30762,7 @@
         <v>338</v>
       </c>
       <c r="R487" t="n">
-        <v>111294.260718487</v>
+        <v>87706.5603677948</v>
       </c>
     </row>
     <row r="488">
@@ -30814,7 +30814,7 @@
         <v>344</v>
       </c>
       <c r="R488" t="n">
-        <v>123257.928268308</v>
+        <v>95682.4285663274</v>
       </c>
     </row>
     <row r="489">
@@ -30868,7 +30868,7 @@
         <v>223</v>
       </c>
       <c r="R489" t="n">
-        <v>424.463206697797</v>
+        <v>78.7573794044617</v>
       </c>
     </row>
     <row r="490">
@@ -30922,7 +30922,7 @@
         <v>217</v>
       </c>
       <c r="R490" t="n">
-        <v>109.961430425981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
@@ -30974,7 +30974,7 @@
         <v>301</v>
       </c>
       <c r="R491" t="n">
-        <v>112144.872061798</v>
+        <v>87734.6777819424</v>
       </c>
     </row>
     <row r="492">
@@ -31028,7 +31028,7 @@
         <v>263</v>
       </c>
       <c r="R492" t="n">
-        <v>141.801116115534</v>
+        <v>124.408824931488</v>
       </c>
     </row>
     <row r="493">
@@ -31080,7 +31080,7 @@
         <v>220</v>
       </c>
       <c r="R493" t="n">
-        <v>128342.587365873</v>
+        <v>98584.8721786575</v>
       </c>
     </row>
     <row r="494">
@@ -31296,7 +31296,7 @@
         <v>340</v>
       </c>
       <c r="R497" t="n">
-        <v>216.563105387248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -31458,7 +31458,7 @@
         <v>368</v>
       </c>
       <c r="R500" t="n">
-        <v>1445.9355382135</v>
+        <v>635.288709268541</v>
       </c>
     </row>
     <row r="501">
@@ -31620,7 +31620,7 @@
         <v>229</v>
       </c>
       <c r="R503" t="n">
-        <v>2.7711763296844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
@@ -31836,7 +31836,7 @@
         <v>258</v>
       </c>
       <c r="R507" t="n">
-        <v>2617.32059853152</v>
+        <v>2404.07789602908</v>
       </c>
     </row>
     <row r="508">
@@ -31998,7 +31998,7 @@
         <v>228</v>
       </c>
       <c r="R510" t="n">
-        <v>5311.40716958421</v>
+        <v>4904.48144870698</v>
       </c>
     </row>
     <row r="511">
@@ -32052,7 +32052,7 @@
         <v>461</v>
       </c>
       <c r="R511" t="n">
-        <v>4440.95346498768</v>
+        <v>4185.79375109673</v>
       </c>
     </row>
     <row r="512">
@@ -32430,7 +32430,7 @@
         <v>308</v>
       </c>
       <c r="R518" t="n">
-        <v>259.410293448724</v>
+        <v>155.032613824815</v>
       </c>
     </row>
     <row r="519">
@@ -32484,7 +32484,7 @@
         <v>318</v>
       </c>
       <c r="R519" t="n">
-        <v>5857.21984382604</v>
+        <v>4218.57939790034</v>
       </c>
     </row>
     <row r="520">
@@ -32536,7 +32536,7 @@
         <v>249</v>
       </c>
       <c r="R520" t="n">
-        <v>105683.019285068</v>
+        <v>83454.0108993434</v>
       </c>
     </row>
     <row r="521">
@@ -32588,7 +32588,7 @@
         <v>256</v>
       </c>
       <c r="R521" t="n">
-        <v>101837.631746927</v>
+        <v>81309.2879629096</v>
       </c>
     </row>
     <row r="522">
@@ -32694,7 +32694,7 @@
         <v>378</v>
       </c>
       <c r="R523" t="n">
-        <v>124034.611167959</v>
+        <v>93929.5687603562</v>
       </c>
     </row>
     <row r="524">
@@ -32802,7 +32802,7 @@
         <v>488</v>
       </c>
       <c r="R525" t="n">
-        <v>379.121825827062</v>
+        <v>3.1933566542093</v>
       </c>
     </row>
     <row r="526">
@@ -32856,7 +32856,7 @@
         <v>268</v>
       </c>
       <c r="R526" t="n">
-        <v>2548.08840774999</v>
+        <v>2130.23446980698</v>
       </c>
     </row>
     <row r="527">
@@ -33180,7 +33180,7 @@
         <v>312</v>
       </c>
       <c r="R532" t="n">
-        <v>452.774873480945</v>
+        <v>253.941153290236</v>
       </c>
     </row>
     <row r="533">
@@ -33232,7 +33232,7 @@
         <v>303</v>
       </c>
       <c r="R533" t="n">
-        <v>26539.4534521551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
@@ -33446,7 +33446,7 @@
         <v>260</v>
       </c>
       <c r="R537" t="n">
-        <v>101716.282627215</v>
+        <v>80764.4837012172</v>
       </c>
     </row>
     <row r="538">
@@ -33716,7 +33716,7 @@
         <v>350</v>
       </c>
       <c r="R542" t="n">
-        <v>221.534809231953</v>
+        <v>219.81105270015</v>
       </c>
     </row>
     <row r="543">
@@ -33824,7 +33824,7 @@
         <v>373</v>
       </c>
       <c r="R544" t="n">
-        <v>66.1080430436807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
@@ -33876,7 +33876,7 @@
         <v>254</v>
       </c>
       <c r="R545" t="n">
-        <v>86189.3322677321</v>
+        <v>53144.8740084522</v>
       </c>
     </row>
     <row r="546">
@@ -34632,7 +34632,7 @@
         <v>418</v>
       </c>
       <c r="R559" t="n">
-        <v>70.0629522980278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
@@ -34848,7 +34848,7 @@
         <v>372</v>
       </c>
       <c r="R563" t="n">
-        <v>783.236833325168</v>
+        <v>654.021950948478</v>
       </c>
     </row>
     <row r="564">
@@ -34902,7 +34902,7 @@
         <v>372</v>
       </c>
       <c r="R564" t="n">
-        <v>663.721516713495</v>
+        <v>249.148367790198</v>
       </c>
     </row>
     <row r="565">
@@ -35064,7 +35064,7 @@
         <v>408</v>
       </c>
       <c r="R567" t="n">
-        <v>215.783480302916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
@@ -35224,7 +35224,7 @@
         <v>364</v>
       </c>
       <c r="R570" t="n">
-        <v>44182.6568623174</v>
+        <v>10253.0498349231</v>
       </c>
     </row>
     <row r="571">
@@ -35602,7 +35602,7 @@
         <v>491</v>
       </c>
       <c r="R577" t="n">
-        <v>662.694162919701</v>
+        <v>116.581948374818</v>
       </c>
     </row>
     <row r="578">
@@ -35656,7 +35656,7 @@
         <v>278</v>
       </c>
       <c r="R578" t="n">
-        <v>826.083982942168</v>
+        <v>130.266166132035</v>
       </c>
     </row>
     <row r="579">
@@ -35710,7 +35710,7 @@
         <v>271</v>
       </c>
       <c r="R579" t="n">
-        <v>2711.19889146359</v>
+        <v>319.832659449834</v>
       </c>
     </row>
     <row r="580">
@@ -35818,7 +35818,7 @@
         <v>432</v>
       </c>
       <c r="R581" t="n">
-        <v>303.829300455131</v>
+        <v>218.392780085507</v>
       </c>
     </row>
     <row r="582">
@@ -35926,7 +35926,7 @@
         <v>290</v>
       </c>
       <c r="R583" t="n">
-        <v>1028.01511717393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
@@ -35980,7 +35980,7 @@
         <v>286</v>
       </c>
       <c r="R584" t="n">
-        <v>37.6054609746956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
@@ -36032,7 +36032,7 @@
         <v>296</v>
       </c>
       <c r="R585" t="n">
-        <v>121408.7865239</v>
+        <v>93956.1191663501</v>
       </c>
     </row>
     <row r="586">
@@ -36086,7 +36086,7 @@
         <v>260</v>
       </c>
       <c r="R586" t="n">
-        <v>54.8084215570144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
@@ -36408,7 +36408,7 @@
         <v>261</v>
       </c>
       <c r="R592" t="n">
-        <v>108679.675347463</v>
+        <v>83744.8484709746</v>
       </c>
     </row>
     <row r="593">
@@ -36624,7 +36624,7 @@
         <v>271</v>
       </c>
       <c r="R596" t="n">
-        <v>2792.19837904991</v>
+        <v>2019.16794812607</v>
       </c>
     </row>
     <row r="597">
@@ -37002,7 +37002,7 @@
         <v>330</v>
       </c>
       <c r="R603" t="n">
-        <v>6260.48263387052</v>
+        <v>5354.47468484151</v>
       </c>
     </row>
     <row r="604">
@@ -37056,7 +37056,7 @@
         <v>319</v>
       </c>
       <c r="R604" t="n">
-        <v>115.552572590606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605">
@@ -37164,7 +37164,7 @@
         <v>272</v>
       </c>
       <c r="R606" t="n">
-        <v>112.348909808775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607">
@@ -37216,7 +37216,7 @@
         <v>561</v>
       </c>
       <c r="R607" t="n">
-        <v>33051.1196241572</v>
+        <v>23922.0000553061</v>
       </c>
     </row>
     <row r="608">
@@ -37432,7 +37432,7 @@
         <v>267</v>
       </c>
       <c r="R611" t="n">
-        <v>14.867326435446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612">
@@ -37648,7 +37648,7 @@
         <v>399</v>
       </c>
       <c r="R615" t="n">
-        <v>635.755244277661</v>
+        <v>53.7892505226588</v>
       </c>
     </row>
     <row r="616">
@@ -37754,7 +37754,7 @@
         <v>372</v>
       </c>
       <c r="R617" t="n">
-        <v>13629.074471366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618">
@@ -38022,7 +38022,7 @@
         <v>391</v>
       </c>
       <c r="R622" t="n">
-        <v>85120.5917405623</v>
+        <v>55015.5493329591</v>
       </c>
     </row>
     <row r="623">
@@ -38076,7 +38076,7 @@
         <v>277</v>
       </c>
       <c r="R623" t="n">
-        <v>3291.45668519145</v>
+        <v>2814.63563122771</v>
       </c>
     </row>
     <row r="624">
@@ -38130,7 +38130,7 @@
         <v>314</v>
       </c>
       <c r="R624" t="n">
-        <v>92.4671726723212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625">
@@ -38398,7 +38398,7 @@
         <v>396</v>
       </c>
       <c r="R629" t="n">
-        <v>112760.893827194</v>
+        <v>80495.2164669853</v>
       </c>
     </row>
     <row r="630">
@@ -38614,7 +38614,7 @@
         <v>309</v>
       </c>
       <c r="R633" t="n">
-        <v>18.7129095451811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634">
@@ -39044,7 +39044,7 @@
         <v>224</v>
       </c>
       <c r="R641" t="n">
-        <v>70909.5546255961</v>
+        <v>40602.1884921317</v>
       </c>
     </row>
     <row r="642">
@@ -39150,7 +39150,7 @@
         <v>280</v>
       </c>
       <c r="R643" t="n">
-        <v>89452.6546869327</v>
+        <v>57149.6016418028</v>
       </c>
     </row>
     <row r="644">
@@ -39204,7 +39204,7 @@
         <v>258</v>
       </c>
       <c r="R644" t="n">
-        <v>88.2780272744099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645">
@@ -39366,7 +39366,7 @@
         <v>260</v>
       </c>
       <c r="R647" t="n">
-        <v>319.231604861739</v>
+        <v>4.91215073863216</v>
       </c>
     </row>
     <row r="648">
@@ -39474,7 +39474,7 @@
         <v>295</v>
       </c>
       <c r="R649" t="n">
-        <v>2602.65928970403</v>
+        <v>2401.33218471974</v>
       </c>
     </row>
     <row r="650">
@@ -39798,7 +39798,7 @@
         <v>322</v>
       </c>
       <c r="R655" t="n">
-        <v>3355.85796057856</v>
+        <v>3135.24698842687</v>
       </c>
     </row>
     <row r="656">
@@ -40228,7 +40228,7 @@
         <v>439</v>
       </c>
       <c r="R663" t="n">
-        <v>129757.795959502</v>
+        <v>98263.6515969405</v>
       </c>
     </row>
     <row r="664">
@@ -40768,7 +40768,7 @@
         <v>307</v>
       </c>
       <c r="R673" t="n">
-        <v>0.335305309454125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674">
@@ -40820,7 +40820,7 @@
         <v>320</v>
       </c>
       <c r="R674" t="n">
-        <v>88451.9896958302</v>
+        <v>62497.5606724664</v>
       </c>
     </row>
     <row r="675">
@@ -40872,7 +40872,7 @@
         <v>402</v>
       </c>
       <c r="R675" t="n">
-        <v>64863.2551399773</v>
+        <v>40107.5784368418</v>
       </c>
     </row>
     <row r="676">
@@ -41626,7 +41626,7 @@
         <v>484</v>
       </c>
       <c r="R689" t="n">
-        <v>85348.3099683171</v>
+        <v>67706.1626312241</v>
       </c>
     </row>
     <row r="690">
@@ -41734,7 +41734,7 @@
         <v>298</v>
       </c>
       <c r="R691" t="n">
-        <v>726.274752497825</v>
+        <v>643.561696218243</v>
       </c>
     </row>
     <row r="692">
@@ -41948,7 +41948,7 @@
         <v>404</v>
       </c>
       <c r="R695" t="n">
-        <v>29965.9534233338</v>
+        <v>18529.6927674858</v>
       </c>
     </row>
     <row r="696">
@@ -42108,7 +42108,7 @@
         <v>448</v>
       </c>
       <c r="R698" t="n">
-        <v>84288.6316113995</v>
+        <v>50890.4484059197</v>
       </c>
     </row>
     <row r="699">
@@ -42162,7 +42162,7 @@
         <v>247</v>
       </c>
       <c r="R699" t="n">
-        <v>32.8387601550272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700">
@@ -42214,7 +42214,7 @@
         <v>463</v>
       </c>
       <c r="R700" t="n">
-        <v>89023.564042378</v>
+        <v>67416.2227887128</v>
       </c>
     </row>
     <row r="701">
